--- a/关键词监控.xlsx
+++ b/关键词监控.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
   <si>
     <t>关键词</t>
   </si>
@@ -112,6 +112,42 @@
   </si>
   <si>
     <t>日期（排名/刷几单/流量）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-36/0/0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-20/0/0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8-17/0/0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-10/0/0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20-7/0/0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15-39/0/0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8-2/0/0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-7/1/0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -473,12 +509,13 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7:D8"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="37.5" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -493,55 +530,88 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
+      <c r="B2">
+        <v>20131201</v>
+      </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
         <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:2">

--- a/关键词监控.xlsx
+++ b/关键词监控.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>关键词</t>
   </si>
@@ -148,6 +148,38 @@
   </si>
   <si>
     <t>6-7/1/0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-39/1/0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-5/0/0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-25/0/0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-6/0/0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-21/0/0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8-27/0/0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-2/0/0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-1/0/0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -503,13 +535,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -518,7 +550,7 @@
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -526,7 +558,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -534,71 +566,95 @@
         <v>20131201</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B9" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B10" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -606,7 +662,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
@@ -614,22 +670,22 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>22</v>
       </c>
